--- a/data/trans_dic/P14B34-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P14B34-Dificultad-trans_dic.xlsx
@@ -601,7 +601,7 @@
         <v>0.01364703710738632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.008838810278613425</v>
+        <v>0.008838810278613426</v>
       </c>
     </row>
     <row r="5">
@@ -613,13 +613,13 @@
       </c>
       <c r="C5" s="5" t="inlineStr"/>
       <c r="D5" s="5" t="n">
-        <v>0.006882995438453815</v>
+        <v>0.006870182259215624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.008084263112327298</v>
+        <v>0.007671468523427608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003191325748619018</v>
+        <v>0.003327721416593099</v>
       </c>
     </row>
     <row r="6">
@@ -631,13 +631,13 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.02231244067694888</v>
+        <v>0.0231408290510801</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02168327175317058</v>
+        <v>0.02187279181140346</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01862107523432199</v>
+        <v>0.01941281856133948</v>
       </c>
     </row>
     <row r="7">
@@ -673,13 +673,13 @@
       </c>
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="n">
-        <v>0.0117748416715415</v>
+        <v>0.01095404536454414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.003577697078837463</v>
+        <v>0.00377588830937065</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.006817271176415454</v>
+        <v>0.007015258572478796</v>
       </c>
     </row>
     <row r="9">
@@ -691,13 +691,13 @@
       </c>
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="n">
-        <v>0.03070753630692371</v>
+        <v>0.0296212402574012</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01411198271429444</v>
+        <v>0.01526939277448405</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0178375920391855</v>
+        <v>0.01884122118706803</v>
       </c>
     </row>
     <row r="10">
@@ -721,7 +721,7 @@
         <v>0.008159911008373589</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.00920745535408982</v>
+        <v>0.009207455354089818</v>
       </c>
     </row>
     <row r="11">
@@ -733,13 +733,13 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.01137606409388046</v>
+        <v>0.01051051421950933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.00377187856838035</v>
+        <v>0.003974729616678522</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005231098643442077</v>
+        <v>0.005417288623876204</v>
       </c>
     </row>
     <row r="12">
@@ -751,13 +751,13 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02947521290548977</v>
+        <v>0.02877189219223898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01608494454820224</v>
+        <v>0.01628100753473143</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01497220080197271</v>
+        <v>0.0150611682094999</v>
       </c>
     </row>
     <row r="13">
@@ -781,7 +781,7 @@
         <v>0.01425551204835649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.01143768589624812</v>
+        <v>0.01143768589624813</v>
       </c>
     </row>
     <row r="14">
@@ -793,13 +793,13 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.008253595165291311</v>
+        <v>0.008309349046813625</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.00621992295678104</v>
+        <v>0.006184510189441671</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.006536354159269088</v>
+        <v>0.006455314002636691</v>
       </c>
     </row>
     <row r="15">
@@ -811,13 +811,13 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.03166044444649504</v>
+        <v>0.03429353190312011</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03018169705202436</v>
+        <v>0.02888319434347486</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01926583103812153</v>
+        <v>0.01976744136696948</v>
       </c>
     </row>
     <row r="16">
@@ -853,13 +853,13 @@
       </c>
       <c r="C17" s="5" t="inlineStr"/>
       <c r="D17" s="5" t="n">
-        <v>0.0127032939505481</v>
+        <v>0.01269809428037907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.00783025658452817</v>
+        <v>0.007643585443921352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.007945615970925983</v>
+        <v>0.00754757887698923</v>
       </c>
     </row>
     <row r="18">
@@ -871,13 +871,13 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02155900859723047</v>
+        <v>0.02208075397187981</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01517752342519444</v>
+        <v>0.01480237488888279</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.01391955292815285</v>
+        <v>0.01382505049221483</v>
       </c>
     </row>
     <row r="19">
@@ -1027,13 +1027,13 @@
       </c>
       <c r="C6" s="6" t="inlineStr"/>
       <c r="D6" s="6" t="n">
-        <v>7185</v>
+        <v>7172</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9119</v>
+        <v>8653</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1581</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="7">
@@ -1045,13 +1045,13 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>23293</v>
+        <v>24158</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>24459</v>
+        <v>24672</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9225</v>
+        <v>9617</v>
       </c>
     </row>
     <row r="8">
@@ -1107,13 +1107,13 @@
       </c>
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="n">
-        <v>11493</v>
+        <v>10691</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3252</v>
+        <v>3432</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>6494</v>
+        <v>6682</v>
       </c>
     </row>
     <row r="11">
@@ -1125,13 +1125,13 @@
       </c>
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="n">
-        <v>29971</v>
+        <v>28911</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>12825</v>
+        <v>13877</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16991</v>
+        <v>17947</v>
       </c>
     </row>
     <row r="12">
@@ -1187,13 +1187,13 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>10069</v>
+        <v>9303</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3107</v>
+        <v>3274</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5470</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="15">
@@ -1205,13 +1205,13 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>26089</v>
+        <v>25466</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13250</v>
+        <v>13412</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15655</v>
+        <v>15748</v>
       </c>
     </row>
     <row r="16">
@@ -1267,13 +1267,13 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>4134</v>
+        <v>4162</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3152</v>
+        <v>3134</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6323</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="19">
@@ -1285,13 +1285,13 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>15857</v>
+        <v>17175</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15293</v>
+        <v>14635</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18637</v>
+        <v>19122</v>
       </c>
     </row>
     <row r="20">
@@ -1347,13 +1347,13 @@
       </c>
       <c r="C22" s="6" t="inlineStr"/>
       <c r="D22" s="6" t="n">
-        <v>43266</v>
+        <v>43248</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>26367</v>
+        <v>25738</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>27499</v>
+        <v>26121</v>
       </c>
     </row>
     <row r="23">
@@ -1365,13 +1365,13 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>73428</v>
+        <v>75205</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>51107</v>
+        <v>49844</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>48174</v>
+        <v>47847</v>
       </c>
     </row>
     <row r="24">
